--- a/WIQPM2_tsp/meresek.xlsx
+++ b/WIQPM2_tsp/meresek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codeblocks\EGYETEM\Parallel\tsp_openmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codeblocks\EGYETEM\Parallel\WIQPM2_tsp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A41DA2-4F0E-482C-9D83-C32641587A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27236E-DBB5-4C9B-A6F9-E2E8664286EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,13 +50,13 @@
     <t>Szálak száma</t>
   </si>
   <si>
-    <t>Futási idő</t>
-  </si>
-  <si>
     <t>Fitness</t>
   </si>
   <si>
     <t>AVG Fitness</t>
+  </si>
+  <si>
+    <t>Futási idő (sec)</t>
   </si>
 </sst>
 </file>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,7 +188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -208,6 +207,1798 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Szál-idő</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> viszony (200k iteráció)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$57:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$E$57:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>101.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EE4-4AF0-BFCD-DD4C766E5474}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1510172960"/>
+        <c:axId val="1510173440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1510172960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1510173440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1510173440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1510172960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Szál-idő viszony (20k iteráció)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$17:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$E$17:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-44F9-4006-B483-E7051E49BE30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="764449647"/>
+        <c:axId val="764448207"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="764449647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="764448207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="764448207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="764449647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2361D342-9D85-55F5-16A7-C88F8133F85A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E740D0-8706-B286-47B0-C188D50DDA07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,7 +2267,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,13 +2293,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -538,20 +2329,20 @@
       <c r="A3" s="5">
         <v>10</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>25</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <f t="shared" ref="C3:C21" si="0">A3*B3*5</f>
         <v>1250</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>1.4E-2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>5829</v>
       </c>
     </row>
@@ -559,20 +2350,20 @@
       <c r="A4" s="5">
         <v>10</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>25</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>6520</v>
       </c>
       <c r="G4">
@@ -584,41 +2375,41 @@
       <c r="A5" s="5">
         <v>10</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>25</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>1.2E-2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>6566</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>10</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>25</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>12</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>7517</v>
       </c>
     </row>
@@ -647,20 +2438,20 @@
       <c r="A8" s="5">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>75</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>0.2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>22734</v>
       </c>
     </row>
@@ -668,20 +2459,20 @@
       <c r="A9" s="5">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>75</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>0.161</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>22831</v>
       </c>
       <c r="G9">
@@ -693,41 +2484,41 @@
       <c r="A10" s="5">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>75</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>8</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>0.14199999999999999</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>25061</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>75</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>12</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>0.123</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>25009</v>
       </c>
     </row>
@@ -756,20 +2547,20 @@
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>200</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>3.55</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>72710</v>
       </c>
     </row>
@@ -777,20 +2568,20 @@
       <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>200</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>2.84</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>74613</v>
       </c>
       <c r="G14">
@@ -802,41 +2593,41 @@
       <c r="A15" s="5">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>200</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>8</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>2.23</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>76867</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>200</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>12</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>76748</v>
       </c>
     </row>
@@ -865,20 +2656,20 @@
       <c r="A18" s="5">
         <v>10</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>400</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>26.32</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>159614</v>
       </c>
     </row>
@@ -886,20 +2677,20 @@
       <c r="A19" s="5">
         <v>10</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>400</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>21.15</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>158339</v>
       </c>
       <c r="G19">
@@ -911,41 +2702,41 @@
       <c r="A20" s="5">
         <v>10</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>400</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>8</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <v>15.21</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>164017</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>10</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>400</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>12</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>12.47</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>167867</v>
       </c>
     </row>
@@ -974,20 +2765,20 @@
       <c r="A23" s="5">
         <v>35</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>25</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <f t="shared" ref="C23:C41" si="1">A23*B23*5</f>
         <v>4375</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>4814</v>
       </c>
     </row>
@@ -995,20 +2786,20 @@
       <c r="A24" s="5">
         <v>35</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>25</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24">
         <f t="shared" si="1"/>
         <v>4375</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24">
         <v>2.4E-2</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>5429</v>
       </c>
       <c r="G24">
@@ -1020,41 +2811,41 @@
       <c r="A25" s="5">
         <v>35</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25">
         <v>25</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <f t="shared" si="1"/>
         <v>4375</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>8</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>5749</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>35</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>25</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <f t="shared" si="1"/>
         <v>4375</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>12</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>6291</v>
       </c>
     </row>
@@ -1083,20 +2874,20 @@
       <c r="A28" s="5">
         <v>35</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>75</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <f t="shared" si="1"/>
         <v>13125</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28">
         <v>2</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>19778</v>
       </c>
     </row>
@@ -1104,20 +2895,20 @@
       <c r="A29" s="5">
         <v>35</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>75</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29">
         <f t="shared" si="1"/>
         <v>13125</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29">
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>22706</v>
       </c>
       <c r="G29">
@@ -1129,41 +2920,41 @@
       <c r="A30" s="5">
         <v>35</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>75</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30">
         <f t="shared" si="1"/>
         <v>13125</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30">
         <v>8</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>21356</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>35</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>75</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <f t="shared" si="1"/>
         <v>13125</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>12</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>22843</v>
       </c>
     </row>
@@ -1192,20 +2983,20 @@
       <c r="A33" s="5">
         <v>35</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33">
         <v>200</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33">
         <f t="shared" si="1"/>
         <v>35000</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33">
         <v>6.18</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>68217</v>
       </c>
     </row>
@@ -1213,20 +3004,20 @@
       <c r="A34" s="5">
         <v>35</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34">
         <v>200</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34">
         <f t="shared" si="1"/>
         <v>35000</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34">
         <v>4</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34">
         <v>4.79</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>69371</v>
       </c>
       <c r="G34">
@@ -1238,41 +3029,41 @@
       <c r="A35" s="5">
         <v>35</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35">
         <v>200</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35">
         <f t="shared" si="1"/>
         <v>35000</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35">
         <v>8</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35">
         <v>4.1500000000000004</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>73505</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>200</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <f t="shared" si="1"/>
         <v>35000</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>12</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>3.72</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>71255</v>
       </c>
     </row>
@@ -1301,20 +3092,20 @@
       <c r="A38" s="5">
         <v>35</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38">
         <v>400</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38">
         <f t="shared" si="1"/>
         <v>70000</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38">
         <v>2</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38">
         <v>47.73</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <v>152598</v>
       </c>
     </row>
@@ -1322,20 +3113,20 @@
       <c r="A39" s="5">
         <v>35</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39">
         <v>400</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39">
         <f t="shared" si="1"/>
         <v>70000</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39">
         <v>4</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39">
         <v>35.18</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>156237</v>
       </c>
       <c r="G39">
@@ -1347,41 +3138,41 @@
       <c r="A40" s="5">
         <v>35</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40">
         <v>400</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <f t="shared" si="1"/>
         <v>70000</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40">
         <v>8</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40">
         <v>26.09</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <v>159678</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>35</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>400</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <f t="shared" si="1"/>
         <v>70000</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>12</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>25.2</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <v>159053</v>
       </c>
     </row>
@@ -1410,20 +3201,20 @@
       <c r="A43" s="5">
         <v>100</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43">
         <v>25</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43">
         <f t="shared" ref="C43:C61" si="2">A43*B43*5</f>
         <v>12500</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <v>4398</v>
       </c>
     </row>
@@ -1431,20 +3222,20 @@
       <c r="A44" s="5">
         <v>100</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44">
         <v>25</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44">
         <f t="shared" si="2"/>
         <v>12500</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44">
         <v>4</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <v>4262</v>
       </c>
       <c r="G44">
@@ -1456,41 +3247,41 @@
       <c r="A45" s="5">
         <v>100</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45">
         <v>25</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45">
         <f t="shared" si="2"/>
         <v>12500</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45">
         <v>8</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <v>4784</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>100</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>25</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <f t="shared" si="2"/>
         <v>12500</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>12</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>5.5E-2</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="9">
         <v>4527</v>
       </c>
     </row>
@@ -1519,20 +3310,20 @@
       <c r="A48" s="5">
         <v>100</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48">
         <v>75</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48">
         <f t="shared" si="2"/>
         <v>37500</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48">
         <v>2</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48">
         <v>0.57499999999999996</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <v>19240</v>
       </c>
     </row>
@@ -1540,20 +3331,20 @@
       <c r="A49" s="5">
         <v>100</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49">
         <v>75</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49">
         <f t="shared" si="2"/>
         <v>37500</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49">
         <v>4</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49">
         <v>0.45200000000000001</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <v>19473</v>
       </c>
       <c r="G49">
@@ -1565,41 +3356,41 @@
       <c r="A50" s="5">
         <v>100</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50">
         <v>75</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50">
         <f t="shared" si="2"/>
         <v>37500</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50">
         <v>8</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50">
         <v>0.41799999999999998</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <v>19389</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
+      <c r="A51" s="7">
         <v>100</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>75</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <f t="shared" si="2"/>
         <v>37500</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>12</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>0.372</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>21450</v>
       </c>
     </row>
@@ -1628,20 +3419,20 @@
       <c r="A53" s="5">
         <v>100</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53">
         <v>200</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53">
         <v>2</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53">
         <v>9.65</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <v>68120</v>
       </c>
     </row>
@@ -1649,20 +3440,20 @@
       <c r="A54" s="5">
         <v>100</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54">
         <v>200</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54">
         <v>4</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54">
         <v>7.32</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <v>69699</v>
       </c>
       <c r="G54">
@@ -1674,41 +3465,41 @@
       <c r="A55" s="5">
         <v>100</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55">
         <v>200</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55">
         <v>8</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55">
         <v>6.23</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <v>70005</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>100</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>200</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>12</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <v>5.8</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="9">
         <v>70310</v>
       </c>
     </row>
@@ -1737,20 +3528,20 @@
       <c r="A58" s="5">
         <v>100</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58">
         <v>400</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58">
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58">
         <v>2</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58">
         <v>77.16</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6">
         <v>151117</v>
       </c>
     </row>
@@ -1758,20 +3549,20 @@
       <c r="A59" s="5">
         <v>100</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59">
         <v>400</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59">
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59">
         <v>4</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59">
         <v>52.28</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="6">
         <v>153090</v>
       </c>
       <c r="G59">
@@ -1783,45 +3574,46 @@
       <c r="A60" s="5">
         <v>100</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60">
         <v>400</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60">
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60">
         <v>8</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60">
         <v>42.13</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <v>154624</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <v>100</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="8">
         <v>400</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>12</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <v>39.82</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="9">
         <v>152797</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>